--- a/Exams/Exam-01/Portafolio_CheckList.xlsx
+++ b/Exams/Exam-01/Portafolio_CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
   <si>
     <t>Criterios</t>
   </si>
@@ -80,7 +80,37 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>No usa Ids</t>
+  </si>
+  <si>
+    <t>Los recuadros deben ser de igual tamaño</t>
+  </si>
+  <si>
+    <t>Las imágenes deben ser distribuidas y de igual tamaño</t>
+  </si>
+  <si>
+    <t>El Footer el boton no tiene el icono dentro</t>
+  </si>
+  <si>
+    <t>El boton de Submit ocupa todo el recuadro</t>
+  </si>
+  <si>
+    <t>El manu NAV sale del recuadro</t>
+  </si>
+  <si>
+    <t>No ocupa todo el recuadro</t>
+  </si>
+  <si>
+    <t>No se Ajusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se ajusta </t>
   </si>
 </sst>
 </file>
@@ -179,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -198,15 +228,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -255,12 +282,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
     <dxf>
       <font>
         <color theme="9"/>
@@ -313,12 +355,52 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -599,28 +681,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="7.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -628,318 +712,361 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19">
         <f>SUM(C3:C7)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="26">
         <f>IF(B3="Si",0.2,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C31" si="0">IF(B4="Si",0.2,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="23">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20">
         <f>SUM(C9:C13)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="17"/>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="17"/>
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="24">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="21">
         <f>SUM(C15:C19)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="B15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="B16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="17"/>
+      <c r="B17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="B18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="22">
         <f>SUM(C21:C25)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="B22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="29">
+      <c r="B23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23">
         <f>SUM(C27:C31)</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -947,75 +1074,88 @@
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="17"/>
+      <c r="B27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="27" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="17"/>
+      <c r="B28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="17"/>
+      <c r="B29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="27" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="17"/>
+      <c r="B30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="26">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="27">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="24">
         <f>SUM(D2:D31)</f>
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1034,59 +1174,51 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B13">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B31">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B19">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B25">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B25 B4:B7 B9:B13 B15:B19 B27:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13 B27:B31">
       <formula1>"SI,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B15:B19 B21:B25">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Exams/Exam-01/Portafolio_CheckList.xlsx
+++ b/Exams/Exam-01/Portafolio_CheckList.xlsx
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Exams/Exam-01/Portafolio_CheckList.xlsx
+++ b/Exams/Exam-01/Portafolio_CheckList.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Web Development\Repository\Exams\Exam-01\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>Criterios</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Puntos</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -80,7 +77,25 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>Faltan Ids</t>
+  </si>
+  <si>
+    <t>se desajusta el NAV</t>
+  </si>
+  <si>
+    <t>La foto deberi arriba de todo para bajar el NAV</t>
+  </si>
+  <si>
+    <t>Se desajustan los recuadros</t>
+  </si>
+  <si>
+    <t>Falta ajsutar las iamgenes al ancho</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -198,15 +213,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -255,12 +267,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
       <font>
         <color theme="9"/>
@@ -309,16 +336,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
       </font>
     </dxf>
   </dxfs>
@@ -597,349 +614,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="17"/>
-    <col min="4" max="4" width="7.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>15</v>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="19">
         <f>SUM(C3:C7)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="26">
         <f>IF(B3="Si",0.2,0)</f>
         <v>0.2</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C31" si="0">IF(B4="Si",0.2,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="27" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="17"/>
+      <c r="B5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="17"/>
+      <c r="B6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="B7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="23">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="20">
         <f>SUM(C9:C13)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="17"/>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="17"/>
+      <c r="B11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="17"/>
+      <c r="B12" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="B13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="24">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="21">
         <f>SUM(C15:C19)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="B15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="17"/>
+      <c r="B16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="17"/>
+      <c r="B17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D18" s="17"/>
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="B19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="22">
         <f>SUM(C21:C25)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="B22" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="B23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="B25" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="26">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23">
         <f>SUM(C27:C31)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -947,75 +1003,82 @@
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="17"/>
+      <c r="B27" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="17"/>
+      <c r="B28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="17"/>
+      <c r="B29" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="17"/>
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="27" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="29">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
+      <c r="B31" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="27">
+        <v>15</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="24">
         <f>SUM(D2:D31)</f>
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1034,59 +1097,51 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B13">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+      <formula>"Si"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B31">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B19">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B25">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"Si"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Si"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B25 B4:B7 B9:B13 B15:B19 B27:B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13 B27:B31">
       <formula1>"SI,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B15:B19 B21:B25">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Exams/Exam-01/Portafolio_CheckList.xlsx
+++ b/Exams/Exam-01/Portafolio_CheckList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>Criterios</t>
   </si>
@@ -77,25 +77,7 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Si</t>
-  </si>
-  <si>
-    <t>Faltan Ids</t>
-  </si>
-  <si>
-    <t>se desajusta el NAV</t>
-  </si>
-  <si>
-    <t>La foto deberi arriba de todo para bajar el NAV</t>
-  </si>
-  <si>
-    <t>Se desajustan los recuadros</t>
-  </si>
-  <si>
-    <t>Falta ajsutar las iamgenes al ancho</t>
   </si>
 </sst>
 </file>
@@ -617,9 +599,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -655,7 +635,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="19">
         <f>SUM(C3:C7)</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -664,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="26">
         <f>IF(B3="Si",0.2,0)</f>
@@ -682,12 +662,10 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C31" si="0">IF(B4="Si",0.2,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -698,12 +676,10 @@
       </c>
       <c r="C5" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="14"/>
-      <c r="E5" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -714,19 +690,17 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="26">
         <f t="shared" si="0"/>
@@ -742,7 +716,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="20">
         <f>SUM(C9:C13)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="29"/>
     </row>
@@ -751,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="26">
         <f t="shared" si="0"/>
@@ -765,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="26">
         <f t="shared" si="0"/>
@@ -779,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="26">
         <f t="shared" si="0"/>
@@ -797,19 +771,17 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="26">
         <f t="shared" si="0"/>
@@ -825,7 +797,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="21">
         <f>SUM(C15:C19)</f>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="E14" s="30"/>
     </row>
@@ -834,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="26">
         <f t="shared" si="0"/>
@@ -848,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="26">
         <f t="shared" si="0"/>
@@ -866,12 +838,10 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -882,19 +852,17 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="26">
         <f t="shared" si="0"/>
@@ -910,7 +878,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="22">
         <f>SUM(C21:C25)</f>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -919,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="26">
         <f t="shared" si="0"/>
@@ -933,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="26">
         <f t="shared" si="0"/>
@@ -951,12 +919,10 @@
       </c>
       <c r="C23" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="27" t="s">
-        <v>23</v>
-      </c>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -967,19 +933,17 @@
       </c>
       <c r="C24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="26">
         <f t="shared" si="0"/>
@@ -995,7 +959,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="23">
         <f>SUM(C27:C31)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1004,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="26">
         <f t="shared" si="0"/>
@@ -1018,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="26">
         <f t="shared" si="0"/>
@@ -1032,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="26">
         <f t="shared" si="0"/>
@@ -1050,19 +1014,17 @@
       </c>
       <c r="C30" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="26">
         <f t="shared" si="0"/>
@@ -1078,7 +1040,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="24">
         <f>SUM(D2:D31)</f>
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1141,7 +1103,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B13 B27:B31">
       <formula1>"SI,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B15:B19 B21:B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B19 B3:B7 B21:B25">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
